--- a/ShopNow/Content/ExcelUpload/MedicalUpload.xlsx
+++ b/ShopNow/Content/ExcelUpload/MedicalUpload.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
   <si>
     <t>Name</t>
   </si>
@@ -32,39 +32,15 @@
     <t>CategoryName</t>
   </si>
   <si>
-    <t>SubCategoryName1</t>
-  </si>
-  <si>
-    <t>SubCategoryName2</t>
-  </si>
-  <si>
     <t>Brand Name</t>
   </si>
   <si>
     <t>Weight</t>
   </si>
   <si>
-    <t>Package Name</t>
-  </si>
-  <si>
     <t>SizeLB</t>
   </si>
   <si>
-    <t>Measurement Unit Name</t>
-  </si>
-  <si>
-    <t>Short Description</t>
-  </si>
-  <si>
-    <t>Long Description</t>
-  </si>
-  <si>
-    <t>Google Taxonomy Code</t>
-  </si>
-  <si>
-    <t>ASIN Code</t>
-  </si>
-  <si>
     <t>Price</t>
   </si>
   <si>
@@ -81,6 +57,63 @@
   </si>
   <si>
     <t>Image5</t>
+  </si>
+  <si>
+    <t>Manufacturer</t>
+  </si>
+  <si>
+    <t>IBarU</t>
+  </si>
+  <si>
+    <t>DrugMeasurementUnitName</t>
+  </si>
+  <si>
+    <t>DrugCompoundDetailIds</t>
+  </si>
+  <si>
+    <t>DrugCompoundDetailName</t>
+  </si>
+  <si>
+    <t>PriscriptionCategory</t>
+  </si>
+  <si>
+    <t>OriginCountry</t>
+  </si>
+  <si>
+    <t>PackageName</t>
+  </si>
+  <si>
+    <t>new medicinecategory</t>
+  </si>
+  <si>
+    <t>new medicine brand</t>
+  </si>
+  <si>
+    <t>new drung msuname</t>
+  </si>
+  <si>
+    <t>newdrugcompounddetailname</t>
+  </si>
+  <si>
+    <t>ndcdid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">india </t>
+  </si>
+  <si>
+    <t>india</t>
+  </si>
+  <si>
+    <t>pack1</t>
+  </si>
+  <si>
+    <t>jose.jpg</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Medical test Upload</t>
   </si>
 </sst>
 </file>
@@ -423,15 +456,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S1"/>
+  <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="19" width="8" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -442,52 +492,111 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="N1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="O1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>18</v>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2">
+        <v>1235</v>
+      </c>
+      <c r="K2">
+        <v>2121</v>
+      </c>
+      <c r="L2">
+        <v>564</v>
+      </c>
+      <c r="M2">
+        <v>541</v>
+      </c>
+      <c r="N2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P2" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>28</v>
+      </c>
+      <c r="R2" t="s">
+        <v>28</v>
+      </c>
+      <c r="S2" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
